--- a/500all/speech_level/speeches_CHRG-114hhrg95219.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95219.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. The Committee on Science, Space, and Technology will come to order.</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>400204</t>
   </si>
   <si>
-    <t>Eddie Bernice Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much, Mr. Chairman, and let me apologize early that at the completion of my opening statement, I will have to depart for another committee markup, but our subcommittee Ranking Member, Ms. Bonamici, will take over.    We are here this morning to discuss the carbon reduction target recently submitted by the Obama Administration to the United Nations. This target, which is known as the United States' Intended Nationally Determined Contribution, sets a goal of reducing carbon pollution across the nation by 26 to 28 percent below 2005 levels by the year 2025.    Before I get too far into my statement, I would like to point out the fact that my colleagues in the Majority failed to invite anyone from the Administration to testify at today's hearing. It seems to me that the Administration is likely the best source to fill in any details regarding the proposal or to address any questions or concerns that members of the Committee may have. Despite this omission, I am looking forward to hearing from today's witnesses, and I welcome you.    Some may say that the Administration's carbon reduction goal is unrealistic or unwarranted, that addressing climate change will cause irreparable harm to the Nation's economy or that it is based on unsettled science. I disagree with such sentiments. I think the target put forward by the President is justified. It appears to strike the right balance between ambition and achievability, and perhaps, most importantly, it a sends a strong and much-needed signal--I am so sorry; this is my allergy season--to the rest of the world about the seriousness of the United States in addressing the impacts of climate change. Such a position is critical to meaningful international engagement.    I have been clear in my position that the time to address climate change is now. The potential costs of inaction are too high for us to continue to drag our feet or put our heads in the sand. A sobering report from a nonpartisan and well-respected group of business and financial leaders, including Michael Bloomberg, Henry Paulson, and Tom Steyer, titled ``Risky Business--The Economic Risks of Climate Change in the United States,'' highlights the significant costs climate change has exacted and will continue to exact on our economy. The report presents a long list of concerns, including rising seas, increased damage from storm surge, more frequent bouts of extreme heat, and shines a light on the cost of inaction to private businesses across the country.    However, the economic costs of inaction are not the whole story. There are also serious public health impacts associated with climate change. Greater risk of asthma attacks, heat stroke, food and waterborne as well as respiratory diseases are all consequences of a warming climate. I know that some still question whether climate change is happening or if humans have contributed significantly to the impacts currently being observed. I know such opinions will be expressed again today, but it seems to me that most of the world has moved beyond such debates and is instead focused on taking concrete steps to address the problem at hand.    We in Congress have to acknowledge that we are not the experts on the science, and that allowing partisan politics to distort the scientific understanding of climate change is cynical and shortsighted. We, as a nation, must act today to address climate change if we are to preserve our quality of life for our children and grandchildren, and some old people like me. The negative consequences of climate change are not abstract scientific predictions for the far-off future. We are facing some of these consequences now and they are affecting every American.    The President's Climate Change Action Plan and the goal submitted to the United Nations represent commonsense steps that will lead to a healthier environment, because acting on climate change is not only an environmental imperative, but a public health and economic one as well.    In closing, I would like to draw on a recent op-ed from Bob Inglis, a former member, a Republican member of this Committee with whom I served, and Jack Schlossberg, comparing the challenge of addressing climate change to the space race. They state: ``Climate change is only scary if we chose to sit, wait, and do nothing about it. Climate change is a chance for all of us to add a chapter to the story of American triumph and human progress. Courage of this scale will come from a people who are told they can do great things by leaders who believe that their people are capable of great things. We believe America will see opportunity in the danger of climate change just like we saw benefits on Earth from travel in space.''    I thank you, Mr. Chairman, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Curry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Curry. I would like to thank the Committee for the opportunity to present testimony this morning.    I am concerned that both the climate change problem and its solution have been vastly oversimplified. The central issue in the scientific debate on climate change is the extent to which the recent and future warming is caused by human-caused greenhouse gas emission versus natural climate variability associated with variations from the sun, volcanic eruptions, and large-scale ocean circulations.    Recent data and research supports the importance of natural climate variability and calls into question the conclusion that humans are the dominant cause of recent climate change. This includes the substantial slow-down in global warming since 1998, reduced estimates of the sensitivity of climate to carbon dioxide, and climate models that are predicting much more warming than has been observed so far in the 21st century.    While there are substantial uncertainties in our understanding of climate change, it is clear that humans are influencing climate in the direction of warming. However, this simple truth is essentially meaningless in itself in terms of alarm and does not mandate a particular policy response.    We have made some questionable choices in defining the problem of climate change and its solution. First, the definition of dangerous climate change is ambiguous, and hypothesized catastrophic tipping points are regarded as very or extremely unlikely in the 21st century. Efforts to link dangerous impacts of extreme weather events to human-caused warming are unsupported by evidence. Climate change is a wicked problem and ill-suited to a command-and-control solution. And finally, it has been estimated that the U.S. national commitments to the U.N. to reduce emission by 28 percent will prevent three hundredths of a degree Centigrade in warming by 2100. The inadequacies of current policies based on emissions reductions are leaving the real societal consequences of climate change and extreme weather events largely unaddressed, whether caused by humans or natural variability.    The wickedness of the climate change problem provides much scope for disagreement amongst reasonable and intelligent people. Effectively responding to the possible threats from a warmer climate is made very difficult by the deep uncertainties surrounding the risk both from the problem and the proposed solutions.    The articulation of a preferred policy option in the early 1990s by the United Nations has marginalized research on broader issues surrounding climate variability and change and has stifled the development of a broader range of policy options. We need to push the reset button in our deliberations about how we should respond to climate change.    As an example of alternative options, pragmatic solutions have been proposed based on efforts to accelerate energy innovation, build resilience to extreme weather, and pursue no-regrets pollution-reduction measures. Each of these measures has justifications independent of their benefits for climate mitigation and adaptation.    Robust policy options that can be justified by associated policy reasons, whether or not human-caused climate change is dangerous, avoids the hubris of pretending to know what will happen with the 21st century climate.    This concludes my testimony.</t>
   </si>
   <si>
@@ -91,18 +82,12 @@
     <t xml:space="preserve">    Chairman Smith. Thank you, Ms. Harbert.    And Mr. Schmidt.</t>
   </si>
   <si>
-    <t>Schmidt</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schmidt. Thank you. Thank you, Chairman Schmidt--sorry--Chairman Smith, Ranking Member Johnson, and distinguished members of the Committee. Thank you for inviting me to present the Natural Resources Defense Council's views on the U.S. target to cut emission 26 to 28 percent below 2005 levels by 2025 to address climate change.    We have a responsibility to protect our children and future generations from the effects of climate change by reducing emission of carbon dioxide and other heat-trapping pollutants. This can be done in a manner that protects public health, spurs job creation, and helps address the significant damages from climate change. Acting responsibly at home is also an essential component of efforts to secure strong global action including for major emitters. Our actions at home show other countries that the world's largest economy is prepared to rise to the challenge to address climate change.    The consequences of inaction on climate change are grave. We are already seeing the impacts of climate change on our communities and facing substantial costs from these impacts. Strong and sustained efforts to address carbon pollution and other heat-trapping pollutants can significantly decrease these impacts on the U.S. and other countries.    The new U.S. climate target is essential to helping stave off the worst of these impacts. The U.S. target can be achieved under existing law cost-effectively. Under existing law, President Obama has set in motion a number of carbon-cutting actions including carbon pollution standards for America's power plants, improved vehicle efficiency standards, appliance efficiency standards, efforts to address methane leakage, and standards to reduce the climate pollution of coolants used in air conditioners and refrigerators. This new target will build upon these efforts as all these standards have time frames that extend past 2020 to give businesses longer-term certainty for their investment decisions.    The U.S. can meet both its 2020 and 2025 targets using existing laws like the Clean Air Act, energy efficiency laws, and steps to protect our public lands and waters. These cuts can be achieved cost-effectively while helping to create jobs and achieving important health benefits for our children. Time and again, American ingenuity, entrepreneurs, and workers have risen to address great challenges. That opportunity to address this challenge is why more than 140 entrepreneurs recently wrote in support of the new U.S. target to cut its emissions.    As you know, U.S. action at home also helps spur global action. For almost two decades, inaction on climate change in the U.S. has been a major stumbling block to securing strong international action on climate change. When the United States is willing to step forward domestically, it can have a catalyzing impact in other countries. This is evident in the new commitments from China and the recent one from Mexico. As part of the U.S.-China agreement, China's president committed to peak its emission by 2030 with the intention to peak earlier and to build an increased amount of non-fossil-fuel energy to amount to 20 percent of its energy by 2030. This is a commitment to even deeper cuts in its climate pollution that many expected was achievable just a few short years ago. In fact, prior to the announcement, many experts including the U.S. Energy Information Administration predicted that China's emission wouldn't peak until well after 2040, and you can see that in other analysis.    This U.S. action couldn't come at a more critical juncture. As leaders meet later this year to finalize a new commitment to address climate change, this agreement will solidify even deeper commitments from key countries around the world. Already the European Union, Switzerland, Norway, Mexico, and China have announced the outlines of their new commitments as a part of this agreement and more countries around the world like India, South Korea, Brazil, South Africa, and Indonesia are diligently working on their proposed targets as a part of the international agreement.    In summary, let me conclude with, if the U.S. target can be achieved cost-effectively under existing law, when the world's largest economy acts, it sends a powerful signal to other governments that they also can and must act aggressively on this grave challenge of climate change.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Schmidt.    Dr. Thorning.</t>
   </si>
   <si>
-    <t>Thorning</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Thorning. Thank you, Chairman Smith, Ranking Member Johnson, for the opportunity to appear before this committee.    I'd like to make three or four points, picking up on some of what the other witnesses have said. First, it's not clear that developing countries like China and India will actually implement strong measures to slow the growth of their emissions.    Second, reaching the Administration's target of 17 percent below 2005 levels by 2020 seems unlikely since we're only 9.5 percent down right now from 2005. So how we would reach a 26 to 28 percent reduction by 2025 seems very challenging.    And third, how will the various regulatory measures described in the INDC to reduce carbon emissions impact the U.S. economy?    Looking at trends in global energy use, the International Energy Agency's 2014 statement suggests that energy use is going to grow by 37 percent to 2040. Why do we think the developing countries will actually be able to meet stringent reduction targets? Their emissions are the ones that are growing fast. The United States' emissions are relatively flat. So it's questionable that the targets that are being discussed will actually be met.    What is the economic impact on the United States of the INDC? Investment in the United States is already quite sluggish. It hasn't recovered to the 2007 levels. Net investment, net depreciation is sluggish, productivity growth is slow, wage growth is slow. We need to be sure that the policies that we undertake aren't going to negatively impact our attempt to recover a strong economy.    The question of whether developing countries will actually follow projected emission cuts, if they look at the European Union, the European Union over a decade ago was implementing strong policies to reduce GHGs to switch toward renewables. They have enjoyed very sluggish economic growth, very high unemployment rates, about 11 percent. So looking at the European lesson, why would developing countries want to follow that kind of a path?    On the other hand, there are ways that the United States can move forward to try to slow the growth of emissions. There are policies that we can undertake that will actually be no-regrets policies, will actually increase economic growth. For example, tax reform. Congress and Senate Finance and Ways and Means are discussing tax reform. Scholarly research suggests that allowing expensing for all new investment would pull through cleaner, less-emitting technologies and help us reduce GHG growth, as well as other emissions.    A study by the ACCF and Ernst &amp; Young last year showed that allowing expensing for all new investment would reduce the cost of capital by about 25 percent, whereas the Bowles-Simpson plan, if implemented, would actually increase the cost of capital. Research shows that each ten percent reduction in the cost of capital for new investment increases investment by five percent. So tax reform should be on the table as a way of addressing GHG reductions.    Second, we should encourage the export of liquefied natural gas. Cleaner-burning fuel to our allies and trading partners in China and India and Europe would help them reduce their emissions while growing their economies. And recall that over 2 billion people have no electricity; 1.3 billion are cooking with biomass and dung and coal, so we need to try to export our surplus of LNG, which is--seems to be growing every year.    Then we also should encourage international financing for clean coal technology. My colleague George Banks recently produced a research paper on that topic and I'd like to request that that paper be submitted for the record.</t>
   </si>
   <si>
@@ -148,9 +133,6 @@
     <t>400245</t>
   </si>
   <si>
-    <t>Zoe Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. Well, welcome to the Science Committee, the last place on the planet where we question whether climate change is being caused by human activity.    Mr. Schmidt, it seems to me that the reality of anthropogenic climate change is really impossible to deny by reliable scientists all over the world. People are facing new challenges resulting from the rapid increase in greenhouse gas emissions, heavier precipitation events, consistently higher-than-average global temperatures, warming ocean, rising sea levels, increased incidence of extreme weather, severe droughts, changes in the spread of infectious disease, changes in ocean chemistry, and other ecological and public health impacts. Now, the scientific consensus about the contributions of humans to climate change is overwhelming. However, Dr. Curry and our Chairman appear to deny such consensus exists, and Dr. Curry suggests, ``If humans are not the dominant cause of climate change, then attempts to modify the climate through reducing GHG emissions will have little impact on future climate change.''    Do you believe, Mr. Schmidt, that human activities are the main cause of climate change?</t>
   </si>
   <si>
@@ -184,9 +166,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman.    Dr. Curry, you mentioned uncertainty and the importance of understanding the actual climate variability. Before inferring sensitivity to greenhouse gases and how there has been a hiatus in global warming since '98, could you explain how the Administration claims that 2014 is the warmest year on record?</t>
   </si>
   <si>
@@ -259,9 +238,6 @@
     <t>412501</t>
   </si>
   <si>
-    <t>Suzanne Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you, Mr. Chairman. And I appreciate that and I hope that my having to be in two places at once does not indicate my lack of interest in this important topic. We are also working on child nutrition in another committee.    Thank you so much to the witnesses for being here today. Climate change is an important issue to my constituents in northwest Oregon, and whether I'm talking about people who live on the coast who rely on a healthy ocean or growers of our famous pinot grapes in Yamhill County or entrepreneurs who are developing new clean energy technologies, there are many people who are working to address and mitigate the impacts of climate change in my State of Oregon.    Now, there have been several statements here about how reducing carbon emission has costs, but we should also consider the costs of inaction. We have shellfish growers on our coast and many of them have spoken with me about the significant losses because of ocean acidification. Oyster production is an $84 million industry on the West Coast and supports more than 3,000 jobs in my State. Ocean acidification is threatening this industry, as well as those in the Gulf of Mexico, New England, mid-Atlantic. And this just doesn't matter to coastal representatives; it's important to restaurants and grocery stores and people who eat shellfish across the country.    Now, later today, I'm going to have an opportunity to visit with some of the Oregonians who grow wine grapes in my district, and I want to mention that the wine economy in Oregon is valued at more than $3 billion and supports more than 17,000 jobs. Wine grapes are especially vulnerable to temperature extremes. Excess heat can raise the sugar level of grapes, for example, which, along with drought, threatens this important industry.    So, Mr. Schmidt, you discussed in your testimony some of the increased costs associated with climate change. Do you agree that if we continue to do little or nothing, these costs will continue to rise? And can you talk just a little bit about the terms of lost jobs, for example, and areas like agriculture if we refuse to act? And I do want to have time for another question as well.</t>
   </si>
   <si>
@@ -283,9 +259,6 @@
     <t>400441</t>
   </si>
   <si>
-    <t>Randy Neugebauer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Neugebauer. Thank you, Mr. Chairman.    A lot of different areas here and I kind of want to explore two or three of them.    One of the issues is let's say we move forward with some kind of an agreement with these other countries. What kind of a verification process will be put in place? Are they going to allow us to fly drones over their countries and do satellite imaging? I mean how do we know that they are playing by the rules? Because one of the things that I have seen in other areas of our government is we play by the rules but some of the people that we make agreements with don't necessarily play by the rules. And so how do we make sure everybody is playing by the rules? Ms. Curry--Dr. Curry?</t>
   </si>
   <si>
@@ -325,9 +298,6 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman, very much.    I found myself deeply troubled by Dr. Curry's written and oral testimony, and I respect your career and your academic background and am grateful that you're here, but I found the testimony just full of internally conflicting facts and opinions and in almost total conflict with everything I have read in the last 15 years in every journal I could get my hands on. So let me offer three examples and ask Dr. Curry for a response.    First, you are highly critical of the precautionary principle. By the way, there's a third option there, which is we do nothing and the worst happens and we're embarrassed for the generations to come because we didn't react.    But you are highly critical of the precautionary principle. You said, ``Extensive costs and questions of feasibility are inadequate for making a dent in slowing down the expected warming.'' Then the very next sentence you state, ``The real societal consequences of climate change in extreme weather events remain largely unaddressed.''    A second, you--I'm quoting from your written testimony, ``Is it possible that something really dangerous and unforeseen could happen to Earth's climate during the 21st century? Yes, it's possible, but natural climate variability, let me emphasize, perhaps in conjunction with human-caused climate change, may be a more likely source of possible undesirable change that human causes. In any event, attempting to avoid such a dangerous and unforeseen climate by reducing fossil fuel emissions will be futile if natural climate is a dominant factor.''    And then the very next page, ``Climate change may exacerbate environmental problems that may be caused by overpopulation, poorly planned land use, over-exploitation of natural resources. However, it's very difficult to separate out the impacts of human-caused climate change from natural climate change and from other societal impacts. So does it really make any difference? We can't change sunspots or ocean circulation or even cloud cover, but we can impact the human-caused part of this wicked problem.''    And finally, at the end of your written testimony you say, ``There is reason to be concerned about climate change,'' which sort of undoes the first 8 pages.</t>
   </si>
   <si>
@@ -382,9 +352,6 @@
     <t>412567</t>
   </si>
   <si>
-    <t>Jim Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    Dr. Curry, you're the professor and former chair of the School of Earth and Atmospheric Sciences at the Georgia Institute of Technology, Georgia Tech. You have a Ph.D. in atmospheric science from the University of Chicago. Prior to joining the faculty at Georgia Tech, you had faculty positions at the University of Colorado, Penn State University, and Purdue University.    There are a lot of us probably especially on this side of the aisle who are confused because during this conversation we have heard that climate change has caused snowpack in some States, it has caused drought in other States, it has caused extreme weather, you know, experiences in other States. I come from Oklahoma. We know what extreme weather is. This is very confusing to us, that climate change is causing these vast changes, you know, I guess weather events. And really when you're talking about States that are next door to each other in one State it's causing snowpack, in the next-door State it's causing drought, can you share with us what your professional judgment is on that analysis?</t>
   </si>
   <si>
@@ -418,9 +385,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman.    Thank you, Mr. Chairman.    Ms. Harbert, you mentioned in your testimony the Turk plant, which happens to be in my district, and I have had the opportunity to visit the Turk plant. I'm also an engineer and have designed many industrial facilities, and it is a very impressive plant. And I will say this about all of manufacturing in the United States, the facilities I have been involved with, they go to great extents to meet all permitting requirements. They are very conscientious about being good stewards of the environment. But when we see a plant like the Turk plant that is a super hypercritical coal facility, best technology in the world, if that plant can't meet emissions, that's simply saying that we are going to abandon coal as a fuel source if we can't use technology like at the Turk plant.    And when we look across the renewable energy spectrum, which I have done projects in renewable energy as well, they are not nearly as economically competitive as traditional fuels, and we also see that they have got technical problems with peak demand and baseline loads.    So I think my question is more questioning the overall premise of our energy policy and our effort to use more renewables. Wouldn't it make more sense, while traditional energy prices are low, to divert more research into renewables to make those technologies more efficient so that as we make our traditional fuels more scarce in the future, our renewables become more economic and will provide a much better energy source for the future? So I know you have worked with the 21st Century--you know, Institute for 21st Century Energy. I'd like to get your input and maybe even Dr. Curry's input on how we need to maybe rethink the premise of our whole energy policy and the way we address using renewables in the future.    Hon. Harbert. I think two quick points. It's ironic that under the Administration's proposal that we would be forced to close the Turk plant because it cannot meet the expectations of the proposal, and yet to highlight the disparity in obligations, China will continue to be able to build those plants, 54 new plants just like that one and yet we can't build one here.    You know, the idea should be--you know, the idea under this Administration's proposal is to make today's affordable energy more expensive. And what we should be focusing on is making a broad variety of energy more affordable, including alternatives like wind and solar, make it more competitive and let the market work. That's what is good for the American economy, that's what is good for the consumer, that's what is good for your constituents.    But this is going to raise electricity prices in Arkansas. And particularly, you know, if you look at Arkansas, you have got 61 percent of the households in Arkansas which are considered low-income households which spend 20 percent of their income on energy, they are going to be hit the worst. We should be offering them more options, not fewer, more expensive options.</t>
   </si>
   <si>
@@ -439,9 +403,6 @@
     <t>412309</t>
   </si>
   <si>
-    <t>Bill Posey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you, Mr. Chairman.    Ms. Harbert, in your testimony you said that the numbers that the United States pledged to the United Nations do not add up. I wonder if you would expound on that a little bit for me.    Hon. Harbert. Certainly. If you take all of the stated regulations that they have put into their INDC and add up the EPA's estimated carbon reductions, they still come up 40 percent short. So it is evident that there is more action that's going to be needed to meet that 26 to 28 percent cut. On top of that, in that submission to the United Nations, they say that we are going to meet an additional target of an 80 percent reduction by 2050 with absolutely no plan, no proposal, no narrative, no evidence of how we're going to get there. So the math does not add up.</t>
   </si>
   <si>
@@ -463,9 +424,6 @@
     <t>412634</t>
   </si>
   <si>
-    <t>John R. Moolenaar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you, Mr. Chairman.    And thank you for being here today and for your testimony.    And I wanted to just share a story with you and then ask you maybe some questions. The situation we had in Michigan a while back in my district where we had a major manufacturer of polycrystalline silicon, which goes into solar panels, and very excited about the solar markets, one of the challenges with that is the main criteria for that company to be successful making that product that goes into solar panels was low-cost electricity. And so we actually had an investment go from our State to a different State because there was a lower-cost electricity.    Now, what I'm hearing in Michigan is that we're going to be losing a number of our coal plants, and I think and my understanding is in China they are building more and more coal plants, which will then allow them to be much more competitive actually in building solar panels.    And so I guess one of the questions I had, Dr. Thorning, and I think it was in Mr. Schmidt's testimony he stated that China's president Xi Jinping--I'm probably not pronouncing that right--committed to peak the carbon pollution by 2030, but I think the actual agreement released by the White House says China intends to achieve the peaking of carbon dioxide emissions around 2030 rather than by 2030.    And I guess my question, Dr. Thorning, is this. You know, if other countries don't make the same level of commitment that we are making and we sort of unilaterally disarm our coal plants that would actually allow us to be leaders in manufacturing because of the low cost of electricity, aren't we paying a huge political price or a competitive price for kind of a political statement that says we are doing something at the same time when others may not be equally committed to that in a sort of a unilateral disarmament if you will?</t>
   </si>
   <si>
@@ -487,9 +445,6 @@
     <t>412503</t>
   </si>
   <si>
-    <t>Thomas Massie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Massie. Mr. Chairman, thank you.    I yield as much time as he may consume to Mr. Palmer.</t>
   </si>
   <si>
@@ -521,9 +476,6 @@
   </si>
   <si>
     <t>412655</t>
-  </si>
-  <si>
-    <t>Brian Babin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Babin. Thank you, Mr. Chairman. I really appreciate it.    Thank you for being here, all of you esteemed witnesses.    Dr. Thorning, I would ask you--first a comment. I worry that regulations associated with climate change will increase the costs of energy to American citizens. It's a big issue in my district in Texas 36, especially hardworking families who are already struggling to get by. Could you describe how increased energy costs impact the macroeconomic health of the United States both for primary energy users and end-use consumers?</t>
@@ -967,11 +919,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -993,11 +943,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1019,11 +967,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1043,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1071,11 +1015,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1095,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1123,11 +1063,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1149,11 +1087,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1173,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1201,11 +1135,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1225,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1253,11 +1183,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1277,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1305,11 +1231,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1329,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1357,11 +1279,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1381,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1409,11 +1327,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1433,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1461,11 +1375,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1485,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1513,11 +1423,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1539,11 +1447,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1563,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1591,11 +1495,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1615,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1641,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1667,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1695,11 +1591,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1719,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
         <v>43</v>
-      </c>
-      <c r="G31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1747,11 +1639,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1771,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1797,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1823,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1851,11 +1735,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1875,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1901,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1927,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1953,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1979,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2005,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2031,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2057,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2083,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2109,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2135,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2161,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2187,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2213,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2239,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2265,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2291,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2317,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
-      </c>
-      <c r="G54" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2343,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2369,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2395,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2421,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2449,11 +2287,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2473,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2499,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2525,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2551,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2577,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2605,11 +2431,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2629,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2655,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2681,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2707,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2733,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
-      </c>
-      <c r="G70" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2759,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2785,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
-      </c>
-      <c r="G72" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2811,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2837,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
         <v>89</v>
-      </c>
-      <c r="H74" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2863,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2889,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2917,11 +2719,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2941,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>102</v>
-      </c>
-      <c r="G78" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2967,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2993,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>102</v>
-      </c>
-      <c r="G80" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3019,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3045,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>102</v>
-      </c>
-      <c r="G82" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3071,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3097,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>102</v>
-      </c>
-      <c r="G84" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3123,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3149,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>102</v>
-      </c>
-      <c r="G86" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3175,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3201,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
+        <v>93</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
         <v>102</v>
-      </c>
-      <c r="G88" t="s">
-        <v>103</v>
-      </c>
-      <c r="H88" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3227,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3253,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>102</v>
-      </c>
-      <c r="G90" t="s">
+        <v>93</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
         <v>103</v>
-      </c>
-      <c r="H90" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3279,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3305,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>102</v>
-      </c>
-      <c r="G92" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3331,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3357,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>102</v>
-      </c>
-      <c r="G94" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3385,11 +3151,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3409,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>102</v>
-      </c>
-      <c r="G96" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3437,11 +3199,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3461,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>121</v>
-      </c>
-      <c r="G98" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3487,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3513,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>121</v>
-      </c>
-      <c r="G100" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3539,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>121</v>
-      </c>
-      <c r="G101" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3565,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>121</v>
-      </c>
-      <c r="G102" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3591,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>121</v>
-      </c>
-      <c r="G103" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3617,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>121</v>
-      </c>
-      <c r="G104" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3643,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>121</v>
-      </c>
-      <c r="G105" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3669,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>121</v>
-      </c>
-      <c r="G106" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3697,11 +3439,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3721,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>133</v>
-      </c>
-      <c r="G108" t="s">
-        <v>134</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3747,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>133</v>
-      </c>
-      <c r="G109" t="s">
-        <v>134</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3773,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3799,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>133</v>
-      </c>
-      <c r="G111" t="s">
-        <v>134</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3827,11 +3559,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3851,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>140</v>
-      </c>
-      <c r="G113" t="s">
-        <v>141</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3877,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>140</v>
-      </c>
-      <c r="G114" t="s">
-        <v>141</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3903,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>140</v>
-      </c>
-      <c r="G115" t="s">
-        <v>141</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3929,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>140</v>
-      </c>
-      <c r="G116" t="s">
-        <v>141</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3955,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>140</v>
-      </c>
-      <c r="G117" t="s">
-        <v>141</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3983,11 +3703,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4007,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>148</v>
-      </c>
-      <c r="G119" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4033,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4059,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>148</v>
-      </c>
-      <c r="G121" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4085,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4111,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>148</v>
-      </c>
-      <c r="G123" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4139,11 +3847,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4163,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>156</v>
-      </c>
-      <c r="G125" t="s">
-        <v>157</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4189,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>55</v>
-      </c>
-      <c r="G126" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4215,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4241,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>55</v>
-      </c>
-      <c r="G128" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4267,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4293,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>55</v>
-      </c>
-      <c r="G130" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4321,11 +4015,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4345,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>55</v>
-      </c>
-      <c r="G132" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4371,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>156</v>
-      </c>
-      <c r="G133" t="s">
-        <v>157</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4399,11 +4087,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4423,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>168</v>
-      </c>
-      <c r="G135" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4449,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4475,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>168</v>
-      </c>
-      <c r="G137" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4501,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4527,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>168</v>
-      </c>
-      <c r="G139" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4553,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4579,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>168</v>
-      </c>
-      <c r="G141" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4605,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4631,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>168</v>
-      </c>
-      <c r="G143" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4657,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>168</v>
-      </c>
-      <c r="G144" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4685,11 +4351,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4709,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>55</v>
-      </c>
-      <c r="G146" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4737,11 +4399,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4761,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>55</v>
-      </c>
-      <c r="G148" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4789,11 +4447,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95219.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95219.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. The Committee on Science, Space, and Technology will come to order.</t>
   </si>
   <si>
@@ -64,6 +73,12 @@
     <t>400204</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much, Mr. Chairman, and let me apologize early that at the completion of my opening statement, I will have to depart for another committee markup, but our subcommittee Ranking Member, Ms. Bonamici, will take over.    We are here this morning to discuss the carbon reduction target recently submitted by the Obama Administration to the United Nations. This target, which is known as the United States' Intended Nationally Determined Contribution, sets a goal of reducing carbon pollution across the nation by 26 to 28 percent below 2005 levels by the year 2025.    Before I get too far into my statement, I would like to point out the fact that my colleagues in the Majority failed to invite anyone from the Administration to testify at today's hearing. It seems to me that the Administration is likely the best source to fill in any details regarding the proposal or to address any questions or concerns that members of the Committee may have. Despite this omission, I am looking forward to hearing from today's witnesses, and I welcome you.    Some may say that the Administration's carbon reduction goal is unrealistic or unwarranted, that addressing climate change will cause irreparable harm to the Nation's economy or that it is based on unsettled science. I disagree with such sentiments. I think the target put forward by the President is justified. It appears to strike the right balance between ambition and achievability, and perhaps, most importantly, it a sends a strong and much-needed signal--I am so sorry; this is my allergy season--to the rest of the world about the seriousness of the United States in addressing the impacts of climate change. Such a position is critical to meaningful international engagement.    I have been clear in my position that the time to address climate change is now. The potential costs of inaction are too high for us to continue to drag our feet or put our heads in the sand. A sobering report from a nonpartisan and well-respected group of business and financial leaders, including Michael Bloomberg, Henry Paulson, and Tom Steyer, titled ``Risky Business--The Economic Risks of Climate Change in the United States,'' highlights the significant costs climate change has exacted and will continue to exact on our economy. The report presents a long list of concerns, including rising seas, increased damage from storm surge, more frequent bouts of extreme heat, and shines a light on the cost of inaction to private businesses across the country.    However, the economic costs of inaction are not the whole story. There are also serious public health impacts associated with climate change. Greater risk of asthma attacks, heat stroke, food and waterborne as well as respiratory diseases are all consequences of a warming climate. I know that some still question whether climate change is happening or if humans have contributed significantly to the impacts currently being observed. I know such opinions will be expressed again today, but it seems to me that most of the world has moved beyond such debates and is instead focused on taking concrete steps to address the problem at hand.    We in Congress have to acknowledge that we are not the experts on the science, and that allowing partisan politics to distort the scientific understanding of climate change is cynical and shortsighted. We, as a nation, must act today to address climate change if we are to preserve our quality of life for our children and grandchildren, and some old people like me. The negative consequences of climate change are not abstract scientific predictions for the far-off future. We are facing some of these consequences now and they are affecting every American.    The President's Climate Change Action Plan and the goal submitted to the United Nations represent commonsense steps that will lead to a healthier environment, because acting on climate change is not only an environmental imperative, but a public health and economic one as well.    In closing, I would like to draw on a recent op-ed from Bob Inglis, a former member, a Republican member of this Committee with whom I served, and Jack Schlossberg, comparing the challenge of addressing climate change to the space race. They state: ``Climate change is only scary if we chose to sit, wait, and do nothing about it. Climate change is a chance for all of us to add a chapter to the story of American triumph and human progress. Courage of this scale will come from a people who are told they can do great things by leaders who believe that their people are capable of great things. We believe America will see opportunity in the danger of climate change just like we saw benefits on Earth from travel in space.''    I thank you, Mr. Chairman, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,6 +88,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Curry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Curry. I would like to thank the Committee for the opportunity to present testimony this morning.    I am concerned that both the climate change problem and its solution have been vastly oversimplified. The central issue in the scientific debate on climate change is the extent to which the recent and future warming is caused by human-caused greenhouse gas emission versus natural climate variability associated with variations from the sun, volcanic eruptions, and large-scale ocean circulations.    Recent data and research supports the importance of natural climate variability and calls into question the conclusion that humans are the dominant cause of recent climate change. This includes the substantial slow-down in global warming since 1998, reduced estimates of the sensitivity of climate to carbon dioxide, and climate models that are predicting much more warming than has been observed so far in the 21st century.    While there are substantial uncertainties in our understanding of climate change, it is clear that humans are influencing climate in the direction of warming. However, this simple truth is essentially meaningless in itself in terms of alarm and does not mandate a particular policy response.    We have made some questionable choices in defining the problem of climate change and its solution. First, the definition of dangerous climate change is ambiguous, and hypothesized catastrophic tipping points are regarded as very or extremely unlikely in the 21st century. Efforts to link dangerous impacts of extreme weather events to human-caused warming are unsupported by evidence. Climate change is a wicked problem and ill-suited to a command-and-control solution. And finally, it has been estimated that the U.S. national commitments to the U.N. to reduce emission by 28 percent will prevent three hundredths of a degree Centigrade in warming by 2100. The inadequacies of current policies based on emissions reductions are leaving the real societal consequences of climate change and extreme weather events largely unaddressed, whether caused by humans or natural variability.    The wickedness of the climate change problem provides much scope for disagreement amongst reasonable and intelligent people. Effectively responding to the possible threats from a warmer climate is made very difficult by the deep uncertainties surrounding the risk both from the problem and the proposed solutions.    The articulation of a preferred policy option in the early 1990s by the United Nations has marginalized research on broader issues surrounding climate variability and change and has stifled the development of a broader range of policy options. We need to push the reset button in our deliberations about how we should respond to climate change.    As an example of alternative options, pragmatic solutions have been proposed based on efforts to accelerate energy innovation, build resilience to extreme weather, and pursue no-regrets pollution-reduction measures. Each of these measures has justifications independent of their benefits for climate mitigation and adaptation.    Robust policy options that can be justified by associated policy reasons, whether or not human-caused climate change is dangerous, avoids the hubris of pretending to know what will happen with the 21st century climate.    This concludes my testimony.</t>
   </si>
   <si>
@@ -82,12 +100,18 @@
     <t xml:space="preserve">    Chairman Smith. Thank you, Ms. Harbert.    And Mr. Schmidt.</t>
   </si>
   <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schmidt. Thank you. Thank you, Chairman Schmidt--sorry--Chairman Smith, Ranking Member Johnson, and distinguished members of the Committee. Thank you for inviting me to present the Natural Resources Defense Council's views on the U.S. target to cut emission 26 to 28 percent below 2005 levels by 2025 to address climate change.    We have a responsibility to protect our children and future generations from the effects of climate change by reducing emission of carbon dioxide and other heat-trapping pollutants. This can be done in a manner that protects public health, spurs job creation, and helps address the significant damages from climate change. Acting responsibly at home is also an essential component of efforts to secure strong global action including for major emitters. Our actions at home show other countries that the world's largest economy is prepared to rise to the challenge to address climate change.    The consequences of inaction on climate change are grave. We are already seeing the impacts of climate change on our communities and facing substantial costs from these impacts. Strong and sustained efforts to address carbon pollution and other heat-trapping pollutants can significantly decrease these impacts on the U.S. and other countries.    The new U.S. climate target is essential to helping stave off the worst of these impacts. The U.S. target can be achieved under existing law cost-effectively. Under existing law, President Obama has set in motion a number of carbon-cutting actions including carbon pollution standards for America's power plants, improved vehicle efficiency standards, appliance efficiency standards, efforts to address methane leakage, and standards to reduce the climate pollution of coolants used in air conditioners and refrigerators. This new target will build upon these efforts as all these standards have time frames that extend past 2020 to give businesses longer-term certainty for their investment decisions.    The U.S. can meet both its 2020 and 2025 targets using existing laws like the Clean Air Act, energy efficiency laws, and steps to protect our public lands and waters. These cuts can be achieved cost-effectively while helping to create jobs and achieving important health benefits for our children. Time and again, American ingenuity, entrepreneurs, and workers have risen to address great challenges. That opportunity to address this challenge is why more than 140 entrepreneurs recently wrote in support of the new U.S. target to cut its emissions.    As you know, U.S. action at home also helps spur global action. For almost two decades, inaction on climate change in the U.S. has been a major stumbling block to securing strong international action on climate change. When the United States is willing to step forward domestically, it can have a catalyzing impact in other countries. This is evident in the new commitments from China and the recent one from Mexico. As part of the U.S.-China agreement, China's president committed to peak its emission by 2030 with the intention to peak earlier and to build an increased amount of non-fossil-fuel energy to amount to 20 percent of its energy by 2030. This is a commitment to even deeper cuts in its climate pollution that many expected was achievable just a few short years ago. In fact, prior to the announcement, many experts including the U.S. Energy Information Administration predicted that China's emission wouldn't peak until well after 2040, and you can see that in other analysis.    This U.S. action couldn't come at a more critical juncture. As leaders meet later this year to finalize a new commitment to address climate change, this agreement will solidify even deeper commitments from key countries around the world. Already the European Union, Switzerland, Norway, Mexico, and China have announced the outlines of their new commitments as a part of this agreement and more countries around the world like India, South Korea, Brazil, South Africa, and Indonesia are diligently working on their proposed targets as a part of the international agreement.    In summary, let me conclude with, if the U.S. target can be achieved cost-effectively under existing law, when the world's largest economy acts, it sends a powerful signal to other governments that they also can and must act aggressively on this grave challenge of climate change.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Schmidt.    Dr. Thorning.</t>
   </si>
   <si>
+    <t>Thorning</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Thorning. Thank you, Chairman Smith, Ranking Member Johnson, for the opportunity to appear before this committee.    I'd like to make three or four points, picking up on some of what the other witnesses have said. First, it's not clear that developing countries like China and India will actually implement strong measures to slow the growth of their emissions.    Second, reaching the Administration's target of 17 percent below 2005 levels by 2020 seems unlikely since we're only 9.5 percent down right now from 2005. So how we would reach a 26 to 28 percent reduction by 2025 seems very challenging.    And third, how will the various regulatory measures described in the INDC to reduce carbon emissions impact the U.S. economy?    Looking at trends in global energy use, the International Energy Agency's 2014 statement suggests that energy use is going to grow by 37 percent to 2040. Why do we think the developing countries will actually be able to meet stringent reduction targets? Their emissions are the ones that are growing fast. The United States' emissions are relatively flat. So it's questionable that the targets that are being discussed will actually be met.    What is the economic impact on the United States of the INDC? Investment in the United States is already quite sluggish. It hasn't recovered to the 2007 levels. Net investment, net depreciation is sluggish, productivity growth is slow, wage growth is slow. We need to be sure that the policies that we undertake aren't going to negatively impact our attempt to recover a strong economy.    The question of whether developing countries will actually follow projected emission cuts, if they look at the European Union, the European Union over a decade ago was implementing strong policies to reduce GHGs to switch toward renewables. They have enjoyed very sluggish economic growth, very high unemployment rates, about 11 percent. So looking at the European lesson, why would developing countries want to follow that kind of a path?    On the other hand, there are ways that the United States can move forward to try to slow the growth of emissions. There are policies that we can undertake that will actually be no-regrets policies, will actually increase economic growth. For example, tax reform. Congress and Senate Finance and Ways and Means are discussing tax reform. Scholarly research suggests that allowing expensing for all new investment would pull through cleaner, less-emitting technologies and help us reduce GHG growth, as well as other emissions.    A study by the ACCF and Ernst &amp; Young last year showed that allowing expensing for all new investment would reduce the cost of capital by about 25 percent, whereas the Bowles-Simpson plan, if implemented, would actually increase the cost of capital. Research shows that each ten percent reduction in the cost of capital for new investment increases investment by five percent. So tax reform should be on the table as a way of addressing GHG reductions.    Second, we should encourage the export of liquefied natural gas. Cleaner-burning fuel to our allies and trading partners in China and India and Europe would help them reduce their emissions while growing their economies. And recall that over 2 billion people have no electricity; 1.3 billion are cooking with biomass and dung and coal, so we need to try to export our surplus of LNG, which is--seems to be growing every year.    Then we also should encourage international financing for clean coal technology. My colleague George Banks recently produced a research paper on that topic and I'd like to request that that paper be submitted for the record.</t>
   </si>
   <si>
@@ -133,6 +157,12 @@
     <t>400245</t>
   </si>
   <si>
+    <t>Lofgren</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lofgren. Well, welcome to the Science Committee, the last place on the planet where we question whether climate change is being caused by human activity.    Mr. Schmidt, it seems to me that the reality of anthropogenic climate change is really impossible to deny by reliable scientists all over the world. People are facing new challenges resulting from the rapid increase in greenhouse gas emissions, heavier precipitation events, consistently higher-than-average global temperatures, warming ocean, rising sea levels, increased incidence of extreme weather, severe droughts, changes in the spread of infectious disease, changes in ocean chemistry, and other ecological and public health impacts. Now, the scientific consensus about the contributions of humans to climate change is overwhelming. However, Dr. Curry and our Chairman appear to deny such consensus exists, and Dr. Curry suggests, ``If humans are not the dominant cause of climate change, then attempts to modify the climate through reducing GHG emissions will have little impact on future climate change.''    Do you believe, Mr. Schmidt, that human activities are the main cause of climate change?</t>
   </si>
   <si>
@@ -166,6 +196,12 @@
     <t>412608</t>
   </si>
   <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman.    Dr. Curry, you mentioned uncertainty and the importance of understanding the actual climate variability. Before inferring sensitivity to greenhouse gases and how there has been a hiatus in global warming since '98, could you explain how the Administration claims that 2014 is the warmest year on record?</t>
   </si>
   <si>
@@ -238,6 +274,12 @@
     <t>412501</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you, Mr. Chairman. And I appreciate that and I hope that my having to be in two places at once does not indicate my lack of interest in this important topic. We are also working on child nutrition in another committee.    Thank you so much to the witnesses for being here today. Climate change is an important issue to my constituents in northwest Oregon, and whether I'm talking about people who live on the coast who rely on a healthy ocean or growers of our famous pinot grapes in Yamhill County or entrepreneurs who are developing new clean energy technologies, there are many people who are working to address and mitigate the impacts of climate change in my State of Oregon.    Now, there have been several statements here about how reducing carbon emission has costs, but we should also consider the costs of inaction. We have shellfish growers on our coast and many of them have spoken with me about the significant losses because of ocean acidification. Oyster production is an $84 million industry on the West Coast and supports more than 3,000 jobs in my State. Ocean acidification is threatening this industry, as well as those in the Gulf of Mexico, New England, mid-Atlantic. And this just doesn't matter to coastal representatives; it's important to restaurants and grocery stores and people who eat shellfish across the country.    Now, later today, I'm going to have an opportunity to visit with some of the Oregonians who grow wine grapes in my district, and I want to mention that the wine economy in Oregon is valued at more than $3 billion and supports more than 17,000 jobs. Wine grapes are especially vulnerable to temperature extremes. Excess heat can raise the sugar level of grapes, for example, which, along with drought, threatens this important industry.    So, Mr. Schmidt, you discussed in your testimony some of the increased costs associated with climate change. Do you agree that if we continue to do little or nothing, these costs will continue to rise? And can you talk just a little bit about the terms of lost jobs, for example, and areas like agriculture if we refuse to act? And I do want to have time for another question as well.</t>
   </si>
   <si>
@@ -259,6 +301,12 @@
     <t>400441</t>
   </si>
   <si>
+    <t>Neugebauer</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Neugebauer. Thank you, Mr. Chairman.    A lot of different areas here and I kind of want to explore two or three of them.    One of the issues is let's say we move forward with some kind of an agreement with these other countries. What kind of a verification process will be put in place? Are they going to allow us to fly drones over their countries and do satellite imaging? I mean how do we know that they are playing by the rules? Because one of the things that I have seen in other areas of our government is we play by the rules but some of the people that we make agreements with don't necessarily play by the rules. And so how do we make sure everybody is playing by the rules? Ms. Curry--Dr. Curry?</t>
   </si>
   <si>
@@ -298,6 +346,12 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman, very much.    I found myself deeply troubled by Dr. Curry's written and oral testimony, and I respect your career and your academic background and am grateful that you're here, but I found the testimony just full of internally conflicting facts and opinions and in almost total conflict with everything I have read in the last 15 years in every journal I could get my hands on. So let me offer three examples and ask Dr. Curry for a response.    First, you are highly critical of the precautionary principle. By the way, there's a third option there, which is we do nothing and the worst happens and we're embarrassed for the generations to come because we didn't react.    But you are highly critical of the precautionary principle. You said, ``Extensive costs and questions of feasibility are inadequate for making a dent in slowing down the expected warming.'' Then the very next sentence you state, ``The real societal consequences of climate change in extreme weather events remain largely unaddressed.''    A second, you--I'm quoting from your written testimony, ``Is it possible that something really dangerous and unforeseen could happen to Earth's climate during the 21st century? Yes, it's possible, but natural climate variability, let me emphasize, perhaps in conjunction with human-caused climate change, may be a more likely source of possible undesirable change that human causes. In any event, attempting to avoid such a dangerous and unforeseen climate by reducing fossil fuel emissions will be futile if natural climate is a dominant factor.''    And then the very next page, ``Climate change may exacerbate environmental problems that may be caused by overpopulation, poorly planned land use, over-exploitation of natural resources. However, it's very difficult to separate out the impacts of human-caused climate change from natural climate change and from other societal impacts. So does it really make any difference? We can't change sunspots or ocean circulation or even cloud cover, but we can impact the human-caused part of this wicked problem.''    And finally, at the end of your written testimony you say, ``There is reason to be concerned about climate change,'' which sort of undoes the first 8 pages.</t>
   </si>
   <si>
@@ -352,6 +406,12 @@
     <t>412567</t>
   </si>
   <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    Dr. Curry, you're the professor and former chair of the School of Earth and Atmospheric Sciences at the Georgia Institute of Technology, Georgia Tech. You have a Ph.D. in atmospheric science from the University of Chicago. Prior to joining the faculty at Georgia Tech, you had faculty positions at the University of Colorado, Penn State University, and Purdue University.    There are a lot of us probably especially on this side of the aisle who are confused because during this conversation we have heard that climate change has caused snowpack in some States, it has caused drought in other States, it has caused extreme weather, you know, experiences in other States. I come from Oklahoma. We know what extreme weather is. This is very confusing to us, that climate change is causing these vast changes, you know, I guess weather events. And really when you're talking about States that are next door to each other in one State it's causing snowpack, in the next-door State it's causing drought, can you share with us what your professional judgment is on that analysis?</t>
   </si>
   <si>
@@ -385,6 +445,12 @@
     <t>412610</t>
   </si>
   <si>
+    <t>Westerman</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman.    Thank you, Mr. Chairman.    Ms. Harbert, you mentioned in your testimony the Turk plant, which happens to be in my district, and I have had the opportunity to visit the Turk plant. I'm also an engineer and have designed many industrial facilities, and it is a very impressive plant. And I will say this about all of manufacturing in the United States, the facilities I have been involved with, they go to great extents to meet all permitting requirements. They are very conscientious about being good stewards of the environment. But when we see a plant like the Turk plant that is a super hypercritical coal facility, best technology in the world, if that plant can't meet emissions, that's simply saying that we are going to abandon coal as a fuel source if we can't use technology like at the Turk plant.    And when we look across the renewable energy spectrum, which I have done projects in renewable energy as well, they are not nearly as economically competitive as traditional fuels, and we also see that they have got technical problems with peak demand and baseline loads.    So I think my question is more questioning the overall premise of our energy policy and our effort to use more renewables. Wouldn't it make more sense, while traditional energy prices are low, to divert more research into renewables to make those technologies more efficient so that as we make our traditional fuels more scarce in the future, our renewables become more economic and will provide a much better energy source for the future? So I know you have worked with the 21st Century--you know, Institute for 21st Century Energy. I'd like to get your input and maybe even Dr. Curry's input on how we need to maybe rethink the premise of our whole energy policy and the way we address using renewables in the future.    Hon. Harbert. I think two quick points. It's ironic that under the Administration's proposal that we would be forced to close the Turk plant because it cannot meet the expectations of the proposal, and yet to highlight the disparity in obligations, China will continue to be able to build those plants, 54 new plants just like that one and yet we can't build one here.    You know, the idea should be--you know, the idea under this Administration's proposal is to make today's affordable energy more expensive. And what we should be focusing on is making a broad variety of energy more affordable, including alternatives like wind and solar, make it more competitive and let the market work. That's what is good for the American economy, that's what is good for the consumer, that's what is good for your constituents.    But this is going to raise electricity prices in Arkansas. And particularly, you know, if you look at Arkansas, you have got 61 percent of the households in Arkansas which are considered low-income households which spend 20 percent of their income on energy, they are going to be hit the worst. We should be offering them more options, not fewer, more expensive options.</t>
   </si>
   <si>
@@ -403,6 +469,12 @@
     <t>412309</t>
   </si>
   <si>
+    <t>Posey</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you, Mr. Chairman.    Ms. Harbert, in your testimony you said that the numbers that the United States pledged to the United Nations do not add up. I wonder if you would expound on that a little bit for me.    Hon. Harbert. Certainly. If you take all of the stated regulations that they have put into their INDC and add up the EPA's estimated carbon reductions, they still come up 40 percent short. So it is evident that there is more action that's going to be needed to meet that 26 to 28 percent cut. On top of that, in that submission to the United Nations, they say that we are going to meet an additional target of an 80 percent reduction by 2050 with absolutely no plan, no proposal, no narrative, no evidence of how we're going to get there. So the math does not add up.</t>
   </si>
   <si>
@@ -424,6 +496,12 @@
     <t>412634</t>
   </si>
   <si>
+    <t>Moolenaar</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you, Mr. Chairman.    And thank you for being here today and for your testimony.    And I wanted to just share a story with you and then ask you maybe some questions. The situation we had in Michigan a while back in my district where we had a major manufacturer of polycrystalline silicon, which goes into solar panels, and very excited about the solar markets, one of the challenges with that is the main criteria for that company to be successful making that product that goes into solar panels was low-cost electricity. And so we actually had an investment go from our State to a different State because there was a lower-cost electricity.    Now, what I'm hearing in Michigan is that we're going to be losing a number of our coal plants, and I think and my understanding is in China they are building more and more coal plants, which will then allow them to be much more competitive actually in building solar panels.    And so I guess one of the questions I had, Dr. Thorning, and I think it was in Mr. Schmidt's testimony he stated that China's president Xi Jinping--I'm probably not pronouncing that right--committed to peak the carbon pollution by 2030, but I think the actual agreement released by the White House says China intends to achieve the peaking of carbon dioxide emissions around 2030 rather than by 2030.    And I guess my question, Dr. Thorning, is this. You know, if other countries don't make the same level of commitment that we are making and we sort of unilaterally disarm our coal plants that would actually allow us to be leaders in manufacturing because of the low cost of electricity, aren't we paying a huge political price or a competitive price for kind of a political statement that says we are doing something at the same time when others may not be equally committed to that in a sort of a unilateral disarmament if you will?</t>
   </si>
   <si>
@@ -445,6 +523,12 @@
     <t>412503</t>
   </si>
   <si>
+    <t>Massie</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Massie. Mr. Chairman, thank you.    I yield as much time as he may consume to Mr. Palmer.</t>
   </si>
   <si>
@@ -476,6 +560,12 @@
   </si>
   <si>
     <t>412655</t>
+  </si>
+  <si>
+    <t>Babin</t>
+  </si>
+  <si>
+    <t>Brian</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Babin. Thank you, Mr. Chairman. I really appreciate it.    Thank you for being here, all of you esteemed witnesses.    Dr. Thorning, I would ask you--first a comment. I worry that regulations associated with climate change will increase the costs of energy to American citizens. It's a big issue in my district in Texas 36, especially hardworking families who are already struggling to get by. Could you describe how increased energy costs impact the macroeconomic health of the United States both for primary energy users and end-use consumers?</t>
@@ -869,7 +959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,7 +967,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,3557 +989,4208 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G41" t="s">
+        <v>60</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G48" t="s">
+        <v>60</v>
+      </c>
       <c r="H48" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G50" t="s">
+        <v>60</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G52" t="s">
+        <v>60</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G54" t="s">
+        <v>60</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>49</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G56" t="s">
+        <v>60</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G58" t="s">
+        <v>60</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G60" t="s">
+        <v>86</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G62" t="s">
+        <v>86</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G64" t="s">
+        <v>86</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G66" t="s">
+        <v>95</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>80</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G68" t="s">
+        <v>95</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G69" t="s">
+        <v>95</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G70" t="s">
+        <v>95</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G72" t="s">
+        <v>95</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>80</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G74" t="s">
+        <v>95</v>
+      </c>
       <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>80</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G76" t="s">
+        <v>95</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>93</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G78" t="s">
+        <v>110</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G80" t="s">
+        <v>110</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>93</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G82" t="s">
+        <v>110</v>
+      </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>93</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G84" t="s">
+        <v>110</v>
+      </c>
       <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>93</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G86" t="s">
+        <v>110</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>93</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G88" t="s">
+        <v>110</v>
+      </c>
       <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>93</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G90" t="s">
+        <v>110</v>
+      </c>
       <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>93</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G92" t="s">
+        <v>110</v>
+      </c>
       <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>93</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G94" t="s">
+        <v>110</v>
+      </c>
       <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>93</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G96" t="s">
+        <v>110</v>
+      </c>
       <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>111</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G98" t="s">
+        <v>130</v>
+      </c>
       <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>111</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G100" t="s">
+        <v>130</v>
+      </c>
       <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>111</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G101" t="s">
+        <v>130</v>
+      </c>
       <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>111</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G102" t="s">
+        <v>130</v>
+      </c>
       <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>111</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G103" t="s">
+        <v>130</v>
+      </c>
       <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>111</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G104" t="s">
+        <v>130</v>
+      </c>
       <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>111</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G105" t="s">
+        <v>130</v>
+      </c>
       <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>111</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G106" t="s">
+        <v>130</v>
+      </c>
       <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G108" t="s">
+        <v>143</v>
+      </c>
       <c r="H108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>122</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G109" t="s">
+        <v>143</v>
+      </c>
       <c r="H109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s">
+        <v>24</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>122</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G111" t="s">
+        <v>143</v>
+      </c>
       <c r="H111" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>128</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G113" t="s">
+        <v>151</v>
+      </c>
       <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>128</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G114" t="s">
+        <v>151</v>
+      </c>
       <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>128</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G115" t="s">
+        <v>151</v>
+      </c>
       <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>128</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G116" t="s">
+        <v>151</v>
+      </c>
       <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>128</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G117" t="s">
+        <v>151</v>
+      </c>
       <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>135</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G119" t="s">
+        <v>160</v>
+      </c>
       <c r="H119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G120" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>135</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G121" t="s">
+        <v>160</v>
+      </c>
       <c r="H121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I121" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G122" t="s">
+        <v>24</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>135</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G123" t="s">
+        <v>160</v>
+      </c>
       <c r="H123" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>142</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G125" t="s">
+        <v>169</v>
+      </c>
       <c r="H125" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I125" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>49</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G126" t="s">
+        <v>60</v>
+      </c>
       <c r="H126" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I126" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G127" t="s">
+        <v>24</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>49</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G128" t="s">
+        <v>60</v>
+      </c>
       <c r="H128" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I128" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G129" t="s">
+        <v>24</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>49</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G130" t="s">
+        <v>60</v>
+      </c>
       <c r="H130" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
       <c r="H131" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>49</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G132" t="s">
+        <v>60</v>
+      </c>
       <c r="H132" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I132" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>142</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G133" t="s">
+        <v>169</v>
+      </c>
       <c r="H133" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>153</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>181</v>
+      </c>
+      <c r="G135" t="s">
+        <v>182</v>
+      </c>
       <c r="H135" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>183</v>
+      </c>
+      <c r="I135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>31</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>153</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>181</v>
+      </c>
+      <c r="G137" t="s">
+        <v>182</v>
+      </c>
       <c r="H137" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>183</v>
+      </c>
+      <c r="I137" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>153</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>181</v>
+      </c>
+      <c r="G139" t="s">
+        <v>182</v>
+      </c>
       <c r="H139" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>183</v>
+      </c>
+      <c r="I139" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G140" t="s">
+        <v>31</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>153</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>181</v>
+      </c>
+      <c r="G141" t="s">
+        <v>182</v>
+      </c>
       <c r="H141" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>183</v>
+      </c>
+      <c r="I141" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G142" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>153</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>181</v>
+      </c>
+      <c r="G143" t="s">
+        <v>182</v>
+      </c>
       <c r="H143" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>183</v>
+      </c>
+      <c r="I143" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>153</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>181</v>
+      </c>
+      <c r="G144" t="s">
+        <v>182</v>
+      </c>
       <c r="H144" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>183</v>
+      </c>
+      <c r="I144" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>49</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G146" t="s">
+        <v>60</v>
+      </c>
       <c r="H146" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>49</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G148" t="s">
+        <v>60</v>
+      </c>
       <c r="H148" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I148" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
       <c r="H149" t="s">
-        <v>168</v>
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95219.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95219.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
     <t>400204</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -155,6 +164,9 @@
   </si>
   <si>
     <t>400245</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Lofgren</t>
@@ -959,7 +971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +979,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,4205 +1004,4560 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G48" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G50" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G52" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G54" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H54" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G56" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>31</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G58" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H58" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>28</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G66" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>24</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G68" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G69" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I69" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G70" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G72" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s">
-        <v>24</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G74" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G76" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G78" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H78" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>24</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G80" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s">
-        <v>24</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G82" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s">
-        <v>24</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>27</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G84" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s">
-        <v>24</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>27</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G86" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G88" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" t="s">
-        <v>24</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G90" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s">
-        <v>24</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G92" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>24</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G94" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H94" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I94" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G96" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H96" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I96" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="H98" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>135</v>
+      </c>
+      <c r="J98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s">
-        <v>24</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G100" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="H100" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I100" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>135</v>
+      </c>
+      <c r="J100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G101" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="H101" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I101" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G102" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I102" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>135</v>
+      </c>
+      <c r="J102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G103" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I103" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>135</v>
+      </c>
+      <c r="J103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G104" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I104" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>135</v>
+      </c>
+      <c r="J104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G105" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="H105" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I105" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>135</v>
+      </c>
+      <c r="J105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G106" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I106" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>135</v>
+      </c>
+      <c r="J106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G108" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="H108" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I108" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J108" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G109" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="H109" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I109" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J109" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s">
-        <v>24</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>27</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G111" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="H111" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I111" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G113" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="H113" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I113" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G114" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="H114" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I114" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G115" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="H115" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I115" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J115" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G116" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="H116" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I116" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G117" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="H117" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I117" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G119" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="H119" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I119" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" t="s">
-        <v>31</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>34</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G121" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="H121" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I121" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J121" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" t="s">
-        <v>24</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>27</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G123" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="H123" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I123" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G125" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="H125" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I125" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J125" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G126" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H126" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I126" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J126" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" t="s">
-        <v>24</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>27</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G128" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H128" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I128" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J128" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" t="s">
-        <v>24</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>27</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G130" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H130" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I130" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J130" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I131" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G132" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H132" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I132" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J132" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G133" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="H133" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I133" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J133" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G135" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="H135" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I135" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J135" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>23</v>
-      </c>
-      <c r="G136" t="s">
-        <v>31</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>34</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G137" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="H137" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I137" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J137" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
-      </c>
-      <c r="G138" t="s">
-        <v>31</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>34</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G139" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="H139" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I139" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J139" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>23</v>
-      </c>
-      <c r="G140" t="s">
-        <v>31</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>34</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G141" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="H141" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I141" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J141" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>23</v>
-      </c>
-      <c r="G142" t="s">
-        <v>31</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>34</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G143" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="H143" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I143" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J143" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G144" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="H144" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I144" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J144" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G146" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H146" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I146" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J146" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G148" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H148" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I148" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J148" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I149" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
